--- a/biology/Zoologie/Flabellidae/Flabellidae.xlsx
+++ b/biology/Zoologie/Flabellidae/Flabellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Flabellidae constituent une famille de scléractiniaires (coraux durs dits coraux « bâtisseurs de récifs »). Il s'agit de coraux solitaires qui vivent dans des eaux profondes de zéro à 3 200 m[2]. Ils sont parfois appelés coraux "chou-fleur".
-En Atlantique Nord-Est, cette famille est indicatrice des écosystèmes marins vulnérables au niveau desquels la pêche de fond est interdite au-delà de 400 m de profondeur[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Flabellidae constituent une famille de scléractiniaires (coraux durs dits coraux « bâtisseurs de récifs »). Il s'agit de coraux solitaires qui vivent dans des eaux profondes de zéro à 3 200 m. Ils sont parfois appelés coraux "chou-fleur".
+En Atlantique Nord-Est, cette famille est indicatrice des écosystèmes marins vulnérables au niveau desquels la pêche de fond est interdite au-delà de 400 m de profondeur.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (19 juin 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (19 juin 2015) :
 genre Blastotrochus Milne Edwards &amp; Haime, 1848 — 1 espèce
 genre Falcatoflabellum Cairns, 1995 — 1 espèce
 genre Flabellum Lesson, 1831 — 41 espèces (+3 fossiles)
@@ -526,7 +540,7 @@
 genre Rhizotrochus Milne Edwards &amp; Haime, 1848 — 4 espèces
 genre Tortoflabellum Squires, 1958 †
 genre Truncatoflabellum Cairns, 1989 — 31 espèces
-Selon Fossilworks (16 novembre 2018)[4]
+Selon Fossilworks (16 novembre 2018)
 Adkinsella
 Blastotrochus
 †Conosmilia Duncan, 1865
